--- a/docs/TestingLog.xlsx
+++ b/docs/TestingLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7d7a16ec9db57da/SP22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\WeightLiftingCoach\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{41BA7A3C-4276-4BEE-8D3D-FC979055D5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E44C699-C01D-429B-A4E6-4B2220463E53}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CAB1F8-918E-472C-8FF3-0BB7A62188A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E36A0EA-6D50-4358-88E6-D9230FEDAB89}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>Date/Time</t>
   </si>
@@ -55,18 +55,9 @@
     <t>3 sets</t>
   </si>
   <si>
-    <t>Mode Used</t>
-  </si>
-  <si>
-    <t>systemctl</t>
-  </si>
-  <si>
     <t>4/27 1309</t>
   </si>
   <si>
-    <t>python3 ssh</t>
-  </si>
-  <si>
     <t>4/27 1335</t>
   </si>
   <si>
@@ -170,6 +161,30 @@
   </si>
   <si>
     <t>graph -&gt; 1 set -&gt; graph -&gt; 2 sets</t>
+  </si>
+  <si>
+    <t>4/29 1327</t>
+  </si>
+  <si>
+    <t>3 sets - check if running py</t>
+  </si>
+  <si>
+    <t>4/29 1329</t>
+  </si>
+  <si>
+    <t>5/1 2107</t>
+  </si>
+  <si>
+    <t>5/1 2114</t>
+  </si>
+  <si>
+    <t>5/1 2118</t>
+  </si>
+  <si>
+    <t>5/1 2138</t>
+  </si>
+  <si>
+    <t>2 sets -&gt; insight graph (demonstration video)</t>
   </si>
 </sst>
 </file>
@@ -275,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -324,6 +339,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -331,13 +366,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,15 +396,12 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -697,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BA840F-A884-4F7D-9BC2-54813D9A30CC}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +751,7 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="20" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -719,12 +762,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -733,388 +774,397 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12" t="str">
+      <c r="F6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="str">
         <f>ROUND(H8/H10*100,2) &amp; "%"</f>
-        <v>96%</v>
-      </c>
-      <c r="I6" s="12"/>
+        <v>96.77%</v>
+      </c>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10">
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
         <f>COUNTIF(B:B, "Pass")</f>
-        <v>24</v>
-      </c>
-      <c r="I8" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6">
+      <c r="C9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11">
         <f>COUNTIF(B:B, "Fail")</f>
         <v>1</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8">
+      <c r="C10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13">
         <f>H8+H9</f>
-        <v>25</v>
-      </c>
-      <c r="I10" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
+      <c r="C11" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
+      <c r="C13" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
+      <c r="C14" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
